--- a/src/test/resources/TestDriver/TestModel_V2/Test.xlsx
+++ b/src/test/resources/TestDriver/TestModel_V2/Test.xlsx
@@ -5,10 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="O_ExecuteState" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="O_Activity" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="O_InstrumentAttribute" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="O_AttributeBalance" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="O_InstrumentBalance" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="O_MetricBalance" sheetId="7" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="75">
   <si>
     <t xml:space="preserve">Steps</t>
   </si>
@@ -80,17 +86,183 @@
   </si>
   <si>
     <t xml:space="preserve">TestModel_V2/ActivityData_20220206.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExecutionState</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">executionDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lastExecutionDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TransactionActivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"instrumentId": "LOAN1"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postingDate ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributeId ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactionName ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrumentId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">originalPeriodId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instrumentAttributeVersionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">periodId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">batchId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effectiveDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.PRODUCT_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isReplayable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTEREST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOAN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT - A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURCHASE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT - B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT - C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINCIPAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVERSAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product - ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST REPLAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstrumentAttribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">versionId ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">endDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">previousVersionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.TRANS_DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.RATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attributes.PURCHASE_AMOUNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-31T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-02T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-01T18:30:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-02T00:00:00.000Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/02/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttributeLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metricName ASC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">accountingPeriodId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.beginningBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balance.endingBalance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstrumentLevelLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetricLevelLtd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -111,6 +283,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,6 +347,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -177,6 +372,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -293,7 +497,7 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -500,4 +704,6075 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.46"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>20220205</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M90"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="25.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2.7397</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>10.9589</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>24.6575</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2.1918</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>8.8767</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>22.2466</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2.0822</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>8.8767</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>22.2466</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>-2.0822</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>-2.1918</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>3.1233</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>3.2877</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>-28.8767</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>-8.8767</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>28.9753</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>8.9753</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>8.9014</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>-22.2466</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>-32.2466</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>22.2466</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>32.2466</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>22.1315</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M41" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K42" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M42" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M43" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M44" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>-3.1233</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>-2.7397</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>-3.2877</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>-3.074</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M48" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>3.2877</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M49" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>3.1233</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K50" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M50" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M51" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M52" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>3.2877</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M53" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K54" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K55" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M57" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>-28.9753</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K58" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>-10.9589</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>-8.9014</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>-8.9753</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>8.9014</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M62" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>9.863</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M63" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>8.9753</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M64" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>28.9753</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M65" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>8.9014</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M66" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K67" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M67" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>1800</v>
+      </c>
+      <c r="F68" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>-32.2466</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K71" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>-24.6575</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M72" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>-22.2466</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M73" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>-22.1315</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M74" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>19.7603</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K75" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M75" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>29.863</v>
+      </c>
+      <c r="F76" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>20.5479</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K77" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>19.7603</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K78" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M78" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>19.863</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K80" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M80" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K81" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M81" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K83" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M83" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K84" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M84" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>8.9014</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K85" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>19.7603</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K86" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M86" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>8.9014</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M88" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K89" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M89" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>19.7603</v>
+      </c>
+      <c r="F90" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="H90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K90" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M90" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.29"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="23.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>2.7397</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>2.7397</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>10.9589</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>10.9589</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>24.6575</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>24.6575</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>2.7397</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>2.1918</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>4.9315</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>10.9589</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>8.8767</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>19.8356</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>24.6575</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>22.2466</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>46.9041</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>4.9315</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>2.0822</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>7.0137</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>-500</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>19.8356</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>28.8767</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>48.7123</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>46.9041</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>32.2466</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>79.1507</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>29000</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>7.0137</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>5.211</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>12.2247</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>9500</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>48.7123</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>9.0986</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>57.8109</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>79.1507</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>22.1315</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>101.2822</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>29000</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>-150</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>28850</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>12.2247</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>3.622</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>15.8467</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>9350</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>57.8109</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>7.8055</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>65.6164</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>18050</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>101.2822</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>8.5123</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>109.7945</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>28850</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>28850</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>15.8467</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>18.9207</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>9350</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>65.6164</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>8.9014</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>74.5178</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>18050</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>109.7945</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>19.7603</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>129.5548</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>28850</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>28850</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>18.9207</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>3.074</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>21.9947</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>9350</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>74.5178</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>8.9014</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>83.4192</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>18050</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>18050</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>129.5548</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>19.7603</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>149.3151</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>28850</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>28850</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>38.3561</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>38.3561</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>38.3561</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>33.3151</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>71.6712</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>71.6712</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>63.2055</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>134.8767</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>57000</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>-500</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>134.8767</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>36.4411</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>171.3178</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>56500</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>-250</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>171.3178</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>19.9398</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>191.2576</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>191.2576</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>31.7357</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>222.9933</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>222.9933</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>31.7357</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>254.729</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>56250</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="21.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>38.3561</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>38.3561</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>202201</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>38.3561</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>33.3151</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>71.6712</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>20220201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>71.6712</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>63.2055</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>134.8767</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>20220202</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>57000</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>-500</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>134.8767</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>36.4411</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>171.3178</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>20220203</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>56500</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>-250</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>171.3178</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>19.9398</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>191.2576</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>20220204</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>56250</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>191.2576</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>31.7357</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>222.9933</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>20220205</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>56250</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>222.9933</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>31.7357</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>254.729</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>202202</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>56250</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>56250</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>